--- a/数据整理/stocks/A股/上证主板/601555-东吴证券.xlsx
+++ b/数据整理/stocks/A股/上证主板/601555-东吴证券.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>基金代码</t>
   </si>
@@ -22,12 +22,18 @@
     <t>基金名称</t>
   </si>
   <si>
+    <t>基金金额</t>
+  </si>
+  <si>
     <t>股票总仓位</t>
   </si>
   <si>
     <t>仓位占比</t>
   </si>
   <si>
+    <t>持有市值(亿元)</t>
+  </si>
+  <si>
     <t>仓位排名</t>
   </si>
   <si>
@@ -43,6 +49,12 @@
     <t>富国国企改革灵活配置混合</t>
   </si>
   <si>
+    <t>5.71</t>
+  </si>
+  <si>
+    <t>1.31</t>
+  </si>
+  <si>
     <t>86.54</t>
   </si>
   <si>
@@ -53,6 +65,12 @@
   </si>
   <si>
     <t>2.06</t>
+  </si>
+  <si>
+    <t>0.1125</t>
+  </si>
+  <si>
+    <t>0.0270</t>
   </si>
 </sst>
 </file>
@@ -410,13 +428,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -432,44 +450,62 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2">
         <v>9</v>
       </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2">
-        <v>9</v>
-      </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3">
         <v>10</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601555-东吴证券.xlsx
+++ b/数据整理/stocks/A股/上证主板/601555-东吴证券.xlsx
@@ -1,108 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="2021-Q1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
-  <si>
-    <t>基金代码</t>
-  </si>
-  <si>
-    <t>基金名称</t>
-  </si>
-  <si>
-    <t>基金金额</t>
-  </si>
-  <si>
-    <t>股票总仓位</t>
-  </si>
-  <si>
-    <t>仓位占比</t>
-  </si>
-  <si>
-    <t>持有市值(亿元)</t>
-  </si>
-  <si>
-    <t>仓位排名</t>
-  </si>
-  <si>
-    <t>000029</t>
-  </si>
-  <si>
-    <t>005357</t>
-  </si>
-  <si>
-    <t>富国宏观策略灵活配置混合</t>
-  </si>
-  <si>
-    <t>富国国企改革灵活配置混合</t>
-  </si>
-  <si>
-    <t>5.71</t>
-  </si>
-  <si>
-    <t>1.31</t>
-  </si>
-  <si>
-    <t>86.54</t>
-  </si>
-  <si>
-    <t>84.68</t>
-  </si>
-  <si>
-    <t>1.97</t>
-  </si>
-  <si>
-    <t>2.06</t>
-  </si>
-  <si>
-    <t>0.1125</t>
-  </si>
-  <si>
-    <t>0.0270</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -125,21 +68,97 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -427,89 +446,265 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000029</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国宏观策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.54</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1125</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005357</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>84.68</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0270</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>10</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000849</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇丰晋信双核策略混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>79.71</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1912</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000850</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇丰晋信双核策略混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>79.71</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0237</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601555-东吴证券.xlsx
+++ b/数据整理/stocks/A股/上证主板/601555-东吴证券.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -707,4 +708,362 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000849</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇丰晋信双核策略混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.34</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2288</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011545</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>长江沪深300指数增强型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0328</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000850</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇丰晋信双核策略混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.34</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0292</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>510200</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇安上证证券ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>95.94</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0229</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>540007</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇丰晋信中小盘股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011546</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>长江沪深300指数增强型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>166107</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>信达澳银量化多因子混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>95.15</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>166108</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>信达澳银量化多因子混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>95.15</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601555-东吴证券.xlsx
+++ b/数据整理/stocks/A股/上证主板/601555-东吴证券.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1066,4 +1067,88 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601555-东吴证券.xlsx
+++ b/数据整理/stocks/A股/上证主板/601555-东吴证券.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1075,7 +1076,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1086,17 +1087,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1106,14 +1127,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>8</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.34</v>
+          <t>004702</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方金融主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>20.03</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7291</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1122,14 +1165,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.21</v>
+          <t>000849</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇丰晋信双核策略混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.39</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2644</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -1138,13 +1203,629 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>012080</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达中证500指数量化增强型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>10.89</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>84.57</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1514</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002316</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>创金合信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.46</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0356</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000850</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇丰晋信双核策略混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.39</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0336</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>510200</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇安上证证券ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>96.12</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0265</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012081</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达中证500指数量化增强型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>84.57</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0215</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>510440</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>大成中证500沪市ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>97.02</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>660011</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>农银中证500指数</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.98</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006611</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>人保中证500指数</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>515510</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>嘉实中证500成长估值ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>98.54</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>515550</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中融中证500ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.23</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>519117</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>浦银安盛基本面400指数</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>162907</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>泰信中证锐联基本面400指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>002311</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>创金合信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.46</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>510570</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>兴业中证500ETF</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>95.78</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>16</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>2</v>
       </c>
       <c r="D4" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
         <v>0.14</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601555-东吴证券.xlsx
+++ b/数据整理/stocks/A股/上证主板/601555-东吴证券.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1740,7 +1741,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1751,17 +1752,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1771,14 +1792,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>16</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.28</v>
+          <t>000849</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇丰晋信双核策略混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.44</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1776</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -1787,14 +1830,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>8</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.34</v>
+          <t>561550</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证500增强策略ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>9.68</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.93</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1481</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -1803,14 +1868,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.21</v>
+          <t>012080</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达中证500指数量化增强型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.82</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>84.83</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0675</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -1819,13 +1906,531 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>010153</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中加中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0304</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>510200</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇安上证证券ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>97.70</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0240</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000850</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇丰晋信双核策略混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>85.44</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0231</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012081</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达中证500指数量化增强型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>84.83</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010154</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中加中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0145</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>165511</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>信诚中证500指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>510440</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>大成中证500沪市ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>96.76</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006611</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>人保中证500指数</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.48</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>515550</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中融中证500ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>510570</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>兴业中证500ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>96.12</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>013119</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>信诚中证500指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>14</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>8</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>2</v>
       </c>
       <c r="D5" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
         <v>0.14</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601555-东吴证券.xlsx
+++ b/数据整理/stocks/A股/上证主板/601555-东吴证券.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2329,7 +2330,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2340,17 +2341,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2360,14 +2381,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>14</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.52</v>
+          <t>000849</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇丰晋信双核策略混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.69</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1645</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -2376,14 +2419,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>16</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.28</v>
+          <t>561550</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证500增强策略ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10.16</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.95</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1036</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -2392,14 +2457,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+          <t>012080</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达中证500指数量化增强型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.92</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0589</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>8</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.34</v>
       </c>
     </row>
     <row r="5">
@@ -2408,14 +2495,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>2</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.21</v>
+          <t>510200</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇安上证证券ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>96.01</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0233</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -2424,13 +2533,205 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>000850</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇丰晋信双核策略混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>85.69</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0218</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012081</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达中证500指数量化增强型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.92</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>14</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>16</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>8</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>2</v>
       </c>
       <c r="D6" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
         <v>0.14</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601555-东吴证券.xlsx
+++ b/数据整理/stocks/A股/上证主板/601555-东吴证券.xlsx
@@ -6,13 +6,13 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,129 +456,129 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>000029</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>富国宏观策略灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>5.71</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>86.54</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>1.97</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.1125</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.39</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005357</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>富国国企改革灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1.31</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>84.68</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.06</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0270</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>14</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>16</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>8</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.14</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -588,7 +588,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -609,7 +609,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -649,26 +649,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4.52</t>
+          <t>2.87</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>79.71</t>
+          <t>85.69</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.23</t>
+          <t>5.73</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1912</t>
+          <t>0.1645</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -677,36 +677,188 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>561550</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证500增强策略ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10.16</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.95</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1036</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>012080</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达中证500指数量化增强型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.92</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0589</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>510200</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇安上证证券ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>96.01</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0233</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>000850</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>汇丰晋信双核策略混合C</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.56</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>79.71</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.23</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0237</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>3</v>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>85.69</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0218</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012081</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达中证500指数量化增强型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.92</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -720,7 +872,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -741,7 +893,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -781,22 +933,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>87.34</t>
+          <t>85.44</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.72</t>
+          <t>5.92</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.2288</t>
+          <t>0.1776</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -809,36 +961,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>011545</t>
+          <t>561550</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>长江沪深300指数增强型发起式证券投资基金A</t>
+          <t>华泰柏瑞中证500增强策略ETF</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.84</t>
+          <t>9.68</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.14</t>
+          <t>98.93</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.78</t>
+          <t>1.53</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0328</t>
+          <t>0.1481</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -847,36 +999,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>000850</t>
+          <t>012080</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>汇丰晋信双核策略混合C</t>
+          <t>易方达中证500指数量化增强型证券投资基金A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.51</t>
+          <t>6.82</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>87.34</t>
+          <t>84.83</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.72</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0292</t>
+          <t>0.0675</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -885,36 +1037,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>510200</t>
+          <t>010153</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>汇安上证证券ETF</t>
+          <t>中加中证500指数增强A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.87</t>
+          <t>1.26</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>95.94</t>
+          <t>94.19</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.63</t>
+          <t>2.41</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0229</t>
+          <t>0.0304</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -923,36 +1075,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>540007</t>
+          <t>510200</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>汇丰晋信中小盘股票</t>
+          <t>汇安上证证券ETF</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.75</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>94.23</t>
+          <t>97.70</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.07</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0155</t>
+          <t>0.0240</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -961,36 +1113,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>011546</t>
+          <t>000850</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>长江沪深300指数增强型发起式证券投资基金C</t>
+          <t>汇丰晋信双核策略混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.33</t>
+          <t>0.39</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>92.14</t>
+          <t>85.44</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1.78</t>
+          <t>5.92</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0059</t>
+          <t>0.0231</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -999,36 +1151,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>166107</t>
+          <t>012081</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>信达澳银量化多因子混合（LOF）A</t>
+          <t>易方达中证500指数量化增强型证券投资基金C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>1.57</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>95.15</t>
+          <t>84.83</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2.46</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0010</t>
+          <t>0.0155</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9">
@@ -1037,34 +1189,264 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>166108</t>
+          <t>010154</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>信达澳银量化多因子混合（LOF）C</t>
+          <t>中加中证500指数增强C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.60</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>95.15</t>
+          <t>94.19</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2.46</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0145</t>
+        </is>
       </c>
       <c r="H9" t="n">
         <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>165511</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>信诚中证500指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>510440</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>大成中证500沪市ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>96.76</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006611</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>人保中证500指数</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.48</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>515550</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中融中证500ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>510570</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>兴业中证500ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>96.12</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>013119</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>信诚中证500指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1742,7 +2124,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1763,7 +2145,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1803,22 +2185,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>85.44</t>
+          <t>87.34</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.92</t>
+          <t>5.72</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1776</t>
+          <t>0.2288</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1831,36 +2213,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>561550</t>
+          <t>011545</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华泰柏瑞中证500增强策略ETF</t>
+          <t>长江沪深300指数增强型发起式证券投资基金A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>9.68</t>
+          <t>1.84</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>98.93</t>
+          <t>92.14</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.53</t>
+          <t>1.78</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1481</t>
+          <t>0.0328</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -1869,36 +2251,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>012080</t>
+          <t>000850</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>易方达中证500指数量化增强型证券投资基金A</t>
+          <t>汇丰晋信双核策略混合C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>6.82</t>
+          <t>0.51</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>84.83</t>
+          <t>87.34</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.99</t>
+          <t>5.72</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0675</t>
+          <t>0.0292</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -1907,36 +2289,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>010153</t>
+          <t>510200</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中加中证500指数增强A</t>
+          <t>汇安上证证券ETF</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.26</t>
+          <t>0.87</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>94.19</t>
+          <t>95.94</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.41</t>
+          <t>2.63</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0304</t>
+          <t>0.0229</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -1945,36 +2327,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>510200</t>
+          <t>540007</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>汇安上证证券ETF</t>
+          <t>汇丰晋信中小盘股票</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>0.75</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>97.70</t>
+          <t>94.23</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>2.07</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0240</t>
+          <t>0.0155</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -1983,36 +2365,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>000850</t>
+          <t>011546</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>汇丰晋信双核策略混合C</t>
+          <t>长江沪深300指数增强型发起式证券投资基金C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.39</t>
+          <t>0.33</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>85.44</t>
+          <t>92.14</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>5.92</t>
+          <t>1.78</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0231</t>
+          <t>0.0059</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -2021,36 +2403,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>012081</t>
+          <t>166107</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>易方达中证500指数量化增强型证券投资基金C</t>
+          <t>信达澳银量化多因子混合（LOF）A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1.57</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>84.83</t>
+          <t>95.15</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0.99</t>
+          <t>2.46</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0155</t>
+          <t>0.0010</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
@@ -2059,264 +2441,34 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>010154</t>
+          <t>166108</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>中加中证500指数增强C</t>
+          <t>信达澳银量化多因子混合（LOF）C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.60</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>94.19</t>
+          <t>95.15</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2.41</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0145</t>
-        </is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>4</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>165511</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>信诚中证500指数（LOF）A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>2.78</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>93.31</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>0.50</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0139</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>510440</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>大成中证500沪市ETF</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.41</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>96.76</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>0.91</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0037</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>006611</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>人保中证500指数</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.44</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>92.48</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>0.59</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0026</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>515550</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>中融中证500ETF</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.23</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>91.02</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>0.47</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0011</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>510570</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>兴业中证500ETF</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>96.12</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>0.60</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0006</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>013119</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>信诚中证500指数（LOF）C</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.12</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>93.31</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>0.50</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0006</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -2330,7 +2482,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2351,7 +2503,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -2391,26 +2543,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2.87</t>
+          <t>4.52</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>85.69</t>
+          <t>79.71</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.73</t>
+          <t>4.23</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1645</t>
+          <t>0.1912</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -2419,188 +2571,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>561550</t>
+          <t>000850</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华泰柏瑞中证500增强策略ETF</t>
+          <t>汇丰晋信双核策略混合C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>10.16</t>
+          <t>0.56</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>98.95</t>
+          <t>79.71</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.02</t>
+          <t>4.23</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1036</t>
+          <t>0.0237</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>012080</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>易方达中证500指数量化增强型证券投资基金A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>6.01</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>92.92</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0.98</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0589</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
         <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>510200</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>汇安上证证券ETF</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.78</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>96.01</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.99</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0233</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>000850</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>汇丰晋信双核策略混合C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.38</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>85.69</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>5.73</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0218</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>012081</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>易方达中证500指数量化增强型证券投资基金C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>1.37</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>92.92</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0.98</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0134</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -2614,128 +2614,128 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.39</v>
+          <t>000029</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国宏观策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.54</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1125</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>14</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.52</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>16</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.28</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>8</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.34</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>2</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.21</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>2</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.14</v>
+          <t>005357</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>84.68</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0270</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601555-东吴证券.xlsx
+++ b/数据整理/stocks/A股/上证主板/601555-东吴证券.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>0.39</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>0.52</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D4" t="n">
-        <v>1.28</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D5" t="n">
-        <v>0.34</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D6" t="n">
-        <v>0.21</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>2</v>
       </c>
       <c r="D7" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
         <v>0.14</v>
       </c>
     </row>
@@ -583,6 +600,176 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000849</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇丰晋信双核策略混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>64.43</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0798</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>510200</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇安上证证券ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>95.06</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0205</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000850</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇丰晋信双核策略混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>64.43</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -866,7 +1053,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1454,7 +1641,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2118,7 +2305,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2476,7 +2663,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2608,7 +2795,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/601555-东吴证券.xlsx
+++ b/数据整理/stocks/A股/上证主板/601555-东吴证券.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="D2" t="n">
-        <v>0.11</v>
+        <v>0.8100000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>0.39</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>0.52</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D5" t="n">
-        <v>1.28</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D6" t="n">
-        <v>0.34</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D7" t="n">
-        <v>0.21</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>2</v>
       </c>
       <c r="D8" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>2</v>
+      </c>
+      <c r="D9" t="n">
         <v>0.14</v>
       </c>
     </row>
@@ -600,6 +617,820 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>006682</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>17.02</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4017</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000978</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城量化精选股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.44</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1667</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>013639</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>光大保德信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.95</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0514</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009992</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>景顺长城量化成长演化混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0490</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>162216</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>泰达宏利中证500指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0384</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012080</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达中证500指数量化增强A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0372</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>510200</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇安上证证券ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>95.50</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0200</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012081</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>易方达中证500指数量化增强C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>013640</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>光大保德信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.95</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>003760</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国泰中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005260</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>银华稳健增利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.18</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>012926</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>民生加银中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>87.82</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005261</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>银华稳健增利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.18</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005966</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>安信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>88.79</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>012927</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>民生加银中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>87.82</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>006783</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>红土创新中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>005965</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>安信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>88.79</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>006784</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>红土创新中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>003761</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>国泰中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>016935</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>景顺长城中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -769,7 +1600,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1053,7 +1884,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1641,7 +2472,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2305,7 +3136,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2663,7 +3494,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2795,7 +3626,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
